--- a/ScorePreventReport/Resources/ClassPreventScore_template.xlsx
+++ b/ScorePreventReport/Resources/ClassPreventScore_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuyijun\source\repos\ischool_loader\ScorePreventReport\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Github_ischool\SHEvaluationExtensions\ScorePreventReport\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,10 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
-    <t>台中市忠明高級中學 107學年度 高三甲 修讀學分統計表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>座號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,6 +95,10 @@
   </si>
   <si>
     <t>合計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 修讀學分統計表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,16 +229,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -524,7 +524,7 @@
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -538,220 +538,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
-      <c r="AA3" s="6" t="s">
+      <c r="AA3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AC3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AD3" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="9"/>
+      <c r="O4" s="6"/>
       <c r="P4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="S4" s="9"/>
+      <c r="S4" s="6"/>
       <c r="T4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="W4" s="9"/>
+      <c r="W4" s="6"/>
       <c r="X4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -851,11 +851,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="S3:S4"/>
@@ -872,11 +872,11 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ScorePreventReport/Resources/ClassPreventScore_template.xlsx
+++ b/ScorePreventReport/Resources/ClassPreventScore_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Github_ischool\SHEvaluationExtensions\ScorePreventReport\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ischool Work\Visual Studio Project\SHEvaluationExtensions\ScorePreventReport\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF9F9EF-CA7A-4619-AB4A-89594833634A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11712" windowHeight="7800"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>座號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,18 +95,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> 修讀學分統計表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修讀合計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>合計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 修讀學分統計表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -146,7 +151,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -204,13 +209,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,6 +246,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -239,6 +258,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,175 +542,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.21875" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="26" width="4.109375" style="2" customWidth="1"/>
-    <col min="27" max="27" width="5.33203125" style="2" customWidth="1"/>
-    <col min="28" max="30" width="4.109375" style="2" customWidth="1"/>
-    <col min="31" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="27" width="4.109375" style="2" customWidth="1"/>
+    <col min="28" max="28" width="5.33203125" style="2" customWidth="1"/>
+    <col min="29" max="31" width="4.109375" style="2" customWidth="1"/>
+    <col min="32" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:31" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
+      <c r="AB2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
+    <row r="3" spans="1:31" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
+    <row r="4" spans="1:31" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
@@ -698,7 +725,7 @@
       <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="4" t="s">
         <v>5</v>
       </c>
@@ -708,7 +735,7 @@
       <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="4" t="s">
         <v>5</v>
       </c>
@@ -718,7 +745,7 @@
       <c r="N4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="6"/>
+      <c r="O4" s="7"/>
       <c r="P4" s="4" t="s">
         <v>5</v>
       </c>
@@ -728,7 +755,7 @@
       <c r="R4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="6"/>
+      <c r="S4" s="7"/>
       <c r="T4" s="4" t="s">
         <v>5</v>
       </c>
@@ -738,7 +765,7 @@
       <c r="V4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="6"/>
+      <c r="W4" s="7"/>
       <c r="X4" s="4" t="s">
         <v>5</v>
       </c>
@@ -748,12 +775,13 @@
       <c r="Z4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -780,12 +808,13 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
+      <c r="AA5" s="5"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -812,12 +841,13 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
+      <c r="AA6" s="5"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -844,19 +874,21 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
+      <c r="AA7" s="5"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA3:AA4"/>
+  <mergeCells count="27">
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="AC3:AC4"/>
     <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A1:AE1"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:V3"/>
